--- a/data/pca/factorExposure/factorExposure_2016-03-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01066928968228417</v>
+        <v>0.01518087217729601</v>
       </c>
       <c r="C2">
-        <v>0.05708719675873013</v>
+        <v>0.04004204310869893</v>
       </c>
       <c r="D2">
-        <v>0.02958527881478581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.07327804624163423</v>
+      </c>
+      <c r="E2">
+        <v>0.1283079805279906</v>
+      </c>
+      <c r="F2">
+        <v>-0.03884814174580724</v>
+      </c>
+      <c r="G2">
+        <v>-0.00266421133547482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04050584019494936</v>
+        <v>0.02527391113140235</v>
       </c>
       <c r="C3">
-        <v>0.1240600078679446</v>
+        <v>0.06747605488012408</v>
       </c>
       <c r="D3">
-        <v>0.05043751009562809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07331867545280749</v>
+      </c>
+      <c r="E3">
+        <v>0.08090064612924121</v>
+      </c>
+      <c r="F3">
+        <v>0.05918400411657005</v>
+      </c>
+      <c r="G3">
+        <v>-0.08775307432960902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06217189256377872</v>
+        <v>0.06227234700192729</v>
       </c>
       <c r="C4">
-        <v>0.06325225157708775</v>
+        <v>0.06284720271709743</v>
       </c>
       <c r="D4">
-        <v>0.01897048404766374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06519053659393491</v>
+      </c>
+      <c r="E4">
+        <v>0.1184719072319386</v>
+      </c>
+      <c r="F4">
+        <v>0.02185001381195431</v>
+      </c>
+      <c r="G4">
+        <v>0.03590072356564915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04119399699776875</v>
+        <v>0.03897637044544011</v>
       </c>
       <c r="C6">
-        <v>0.03624317571733118</v>
+        <v>0.02641947592761079</v>
       </c>
       <c r="D6">
-        <v>0.01975320693865183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07229235003075908</v>
+      </c>
+      <c r="E6">
+        <v>0.1083500960287753</v>
+      </c>
+      <c r="F6">
+        <v>0.02431378005127977</v>
+      </c>
+      <c r="G6">
+        <v>-0.002738909980351028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02857146816823558</v>
+        <v>0.0221288148146902</v>
       </c>
       <c r="C7">
-        <v>0.03829396518497941</v>
+        <v>0.03590765631687082</v>
       </c>
       <c r="D7">
-        <v>-0.001827840122527986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05337945625289073</v>
+      </c>
+      <c r="E7">
+        <v>0.09750397136662824</v>
+      </c>
+      <c r="F7">
+        <v>0.00227044637066765</v>
+      </c>
+      <c r="G7">
+        <v>0.08043023989985908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.009746455319980791</v>
+        <v>0.008019546382435523</v>
       </c>
       <c r="C8">
-        <v>0.04279392508264801</v>
+        <v>0.03521316024461967</v>
       </c>
       <c r="D8">
-        <v>0.02577872623007988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.04739728492793387</v>
+      </c>
+      <c r="E8">
+        <v>0.07426979498221399</v>
+      </c>
+      <c r="F8">
+        <v>0.01623793752385329</v>
+      </c>
+      <c r="G8">
+        <v>-0.004398798768039874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03827565976163968</v>
+        <v>0.04227409620936214</v>
       </c>
       <c r="C9">
-        <v>0.04611586914033774</v>
+        <v>0.04926325324476769</v>
       </c>
       <c r="D9">
-        <v>0.01704295796896854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05512508804075431</v>
+      </c>
+      <c r="E9">
+        <v>0.1004025257827856</v>
+      </c>
+      <c r="F9">
+        <v>0.005441849829666899</v>
+      </c>
+      <c r="G9">
+        <v>0.04628018416865103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07009572629890866</v>
+        <v>0.09884665685229251</v>
       </c>
       <c r="C10">
-        <v>-0.1887169348563781</v>
+        <v>-0.201088863467129</v>
       </c>
       <c r="D10">
-        <v>0.001276129856980917</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.008618494916548421</v>
+      </c>
+      <c r="E10">
+        <v>0.04334231635497599</v>
+      </c>
+      <c r="F10">
+        <v>0.006074351249305403</v>
+      </c>
+      <c r="G10">
+        <v>0.02724601919274565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04396582696261987</v>
+        <v>0.03816292458749682</v>
       </c>
       <c r="C11">
-        <v>0.04962279926973876</v>
+        <v>0.04689636599940299</v>
       </c>
       <c r="D11">
-        <v>0.017069958945928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04026909356127569</v>
+      </c>
+      <c r="E11">
+        <v>0.04793790081730193</v>
+      </c>
+      <c r="F11">
+        <v>0.007220632438206637</v>
+      </c>
+      <c r="G11">
+        <v>0.05803437231184095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04647278653831084</v>
+        <v>0.04016311603519906</v>
       </c>
       <c r="C12">
-        <v>0.04499804334639039</v>
+        <v>0.0446965988317275</v>
       </c>
       <c r="D12">
-        <v>-0.001633406744159277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.03387175687901603</v>
+      </c>
+      <c r="E12">
+        <v>0.0581485763149107</v>
+      </c>
+      <c r="F12">
+        <v>0.004782930960802866</v>
+      </c>
+      <c r="G12">
+        <v>0.05172048825045483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01603988181909602</v>
+        <v>0.01549296936586915</v>
       </c>
       <c r="C13">
-        <v>0.05375491320344319</v>
+        <v>0.04165381905027761</v>
       </c>
       <c r="D13">
-        <v>0.002926114130296297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06260218546514194</v>
+      </c>
+      <c r="E13">
+        <v>0.1363650612500517</v>
+      </c>
+      <c r="F13">
+        <v>0.01464916582724856</v>
+      </c>
+      <c r="G13">
+        <v>0.04855740986599808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01183429680368827</v>
+        <v>0.007288912057643861</v>
       </c>
       <c r="C14">
-        <v>0.03480536411420185</v>
+        <v>0.02955763135446859</v>
       </c>
       <c r="D14">
-        <v>-0.004647880512115242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03902680908106437</v>
+      </c>
+      <c r="E14">
+        <v>0.09196262444343266</v>
+      </c>
+      <c r="F14">
+        <v>-0.01498228701336237</v>
+      </c>
+      <c r="G14">
+        <v>0.05301105044993477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0001921487160406262</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006507431576599653</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01071665804413975</v>
+      </c>
+      <c r="E15">
+        <v>0.01144180804653923</v>
+      </c>
+      <c r="F15">
+        <v>-0.001121862390043804</v>
+      </c>
+      <c r="G15">
+        <v>0.002009242370729118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04169579707978707</v>
+        <v>0.03644124935929811</v>
       </c>
       <c r="C16">
-        <v>0.04715460061733868</v>
+        <v>0.04410285668240554</v>
       </c>
       <c r="D16">
-        <v>0.002386107322828825</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0342248784156156</v>
+      </c>
+      <c r="E16">
+        <v>0.06242286141453359</v>
+      </c>
+      <c r="F16">
+        <v>-0.008106465282789303</v>
+      </c>
+      <c r="G16">
+        <v>0.0478455944470509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02545307411681307</v>
+        <v>0.01931157045438577</v>
       </c>
       <c r="C19">
-        <v>0.05951128535642144</v>
+        <v>0.04367550611839221</v>
       </c>
       <c r="D19">
-        <v>0.06042508404502493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09259146299194149</v>
+      </c>
+      <c r="E19">
+        <v>0.130389978120471</v>
+      </c>
+      <c r="F19">
+        <v>-0.01705459294333139</v>
+      </c>
+      <c r="G19">
+        <v>0.0007624934055366133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.02061589843643247</v>
+        <v>0.01689329258391926</v>
       </c>
       <c r="C20">
-        <v>0.04749378057055196</v>
+        <v>0.03864837583788159</v>
       </c>
       <c r="D20">
-        <v>0.001602893483592233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04589540985565285</v>
+      </c>
+      <c r="E20">
+        <v>0.1063237553142237</v>
+      </c>
+      <c r="F20">
+        <v>-0.0007046680855280422</v>
+      </c>
+      <c r="G20">
+        <v>0.02855191440165735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01750275103768194</v>
+        <v>0.01465290123390696</v>
       </c>
       <c r="C21">
-        <v>0.05404552872757741</v>
+        <v>0.04264230784622256</v>
       </c>
       <c r="D21">
-        <v>0.0176804949578972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07209468726725979</v>
+      </c>
+      <c r="E21">
+        <v>0.158927956962748</v>
+      </c>
+      <c r="F21">
+        <v>-0.01511975574952125</v>
+      </c>
+      <c r="G21">
+        <v>0.0642071115025324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0007107951623591407</v>
+        <v>0.005024786210072153</v>
       </c>
       <c r="C22">
-        <v>0.01332825958998927</v>
+        <v>0.02871682611118689</v>
       </c>
       <c r="D22">
-        <v>0.02365844831872628</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06326347573317725</v>
+      </c>
+      <c r="E22">
+        <v>0.07839371713968188</v>
+      </c>
+      <c r="F22">
+        <v>0.06105883491114571</v>
+      </c>
+      <c r="G22">
+        <v>-0.03157610050720901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0007215446123644009</v>
+        <v>0.005151944140131813</v>
       </c>
       <c r="C23">
-        <v>0.01332564603698006</v>
+        <v>0.02868417762090852</v>
       </c>
       <c r="D23">
-        <v>0.02362895101871419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06248901403377895</v>
+      </c>
+      <c r="E23">
+        <v>0.07853685773362436</v>
+      </c>
+      <c r="F23">
+        <v>0.06108530015892883</v>
+      </c>
+      <c r="G23">
+        <v>-0.03118854206511382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0389027149788708</v>
+        <v>0.03751139088621337</v>
       </c>
       <c r="C24">
-        <v>0.04820671433220761</v>
+        <v>0.05221038397858899</v>
       </c>
       <c r="D24">
-        <v>0.008567372762708055</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.03615757451346842</v>
+      </c>
+      <c r="E24">
+        <v>0.06785560505513721</v>
+      </c>
+      <c r="F24">
+        <v>-0.00410235329898781</v>
+      </c>
+      <c r="G24">
+        <v>0.06169197094385915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04955943619414738</v>
+        <v>0.04462115400994368</v>
       </c>
       <c r="C25">
-        <v>0.05749383895581139</v>
+        <v>0.05489225932324799</v>
       </c>
       <c r="D25">
-        <v>0.001842195669159254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03300483173908607</v>
+      </c>
+      <c r="E25">
+        <v>0.05986950101929651</v>
+      </c>
+      <c r="F25">
+        <v>0.0090556266941782</v>
+      </c>
+      <c r="G25">
+        <v>0.0690854313654426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02005313601424797</v>
+        <v>0.01794522554619944</v>
       </c>
       <c r="C26">
-        <v>0.01502745188203988</v>
+        <v>0.01578530694289797</v>
       </c>
       <c r="D26">
-        <v>0.007931296059597713</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03602871590894435</v>
+      </c>
+      <c r="E26">
+        <v>0.07319086074465055</v>
+      </c>
+      <c r="F26">
+        <v>-0.0134683293088819</v>
+      </c>
+      <c r="G26">
+        <v>0.02515103282509906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.0899977699901526</v>
+        <v>0.1373206005913033</v>
       </c>
       <c r="C28">
-        <v>-0.2598187533364531</v>
+        <v>-0.2618627068036715</v>
       </c>
       <c r="D28">
-        <v>-0.01055707023847597</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02669462128753345</v>
+      </c>
+      <c r="E28">
+        <v>0.06445753633347277</v>
+      </c>
+      <c r="F28">
+        <v>0.006628617567567015</v>
+      </c>
+      <c r="G28">
+        <v>0.05638389835754039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01023833387277899</v>
+        <v>0.007564820704222093</v>
       </c>
       <c r="C29">
-        <v>0.03055438644374731</v>
+        <v>0.02769026710613518</v>
       </c>
       <c r="D29">
-        <v>-0.01049596844018113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03117875266255121</v>
+      </c>
+      <c r="E29">
+        <v>0.08681923527959687</v>
+      </c>
+      <c r="F29">
+        <v>-0.005390996977961751</v>
+      </c>
+      <c r="G29">
+        <v>0.05532785368963332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04663291434362623</v>
+        <v>0.04618636786337444</v>
       </c>
       <c r="C30">
-        <v>0.04920769349841086</v>
+        <v>0.05520277538639903</v>
       </c>
       <c r="D30">
-        <v>0.07559772128406253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1183628359563724</v>
+      </c>
+      <c r="E30">
+        <v>0.1122046673043672</v>
+      </c>
+      <c r="F30">
+        <v>-0.003942173914529522</v>
+      </c>
+      <c r="G30">
+        <v>-0.00381610871167236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.06392652688800624</v>
+        <v>0.06162574489911341</v>
       </c>
       <c r="C31">
-        <v>0.04527426138052746</v>
+        <v>0.06029666775391154</v>
       </c>
       <c r="D31">
-        <v>-0.0445619808359838</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004348964206791268</v>
+      </c>
+      <c r="E31">
+        <v>0.09134190371624407</v>
+      </c>
+      <c r="F31">
+        <v>0.03024165112072534</v>
+      </c>
+      <c r="G31">
+        <v>0.03470246774528544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006765713920917585</v>
+        <v>0.0110791907308729</v>
       </c>
       <c r="C32">
-        <v>0.03892678107158237</v>
+        <v>0.03430090019835823</v>
       </c>
       <c r="D32">
-        <v>0.05714652570536993</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.06693001035899711</v>
+      </c>
+      <c r="E32">
+        <v>0.08012797578869184</v>
+      </c>
+      <c r="F32">
+        <v>-0.01684465621578669</v>
+      </c>
+      <c r="G32">
+        <v>0.05766994082551945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03500630375481176</v>
+        <v>0.02894703799830629</v>
       </c>
       <c r="C33">
-        <v>0.05721174791661425</v>
+        <v>0.05109220548861965</v>
       </c>
       <c r="D33">
-        <v>0.03821945403923696</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08417811629907894</v>
+      </c>
+      <c r="E33">
+        <v>0.1204332224809798</v>
+      </c>
+      <c r="F33">
+        <v>0.01127952243701226</v>
+      </c>
+      <c r="G33">
+        <v>0.05701209991325411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04496212745174599</v>
+        <v>0.04069663415771674</v>
       </c>
       <c r="C34">
-        <v>0.06257561342150547</v>
+        <v>0.06196185671131205</v>
       </c>
       <c r="D34">
-        <v>0.02295913995327767</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04365419306317121</v>
+      </c>
+      <c r="E34">
+        <v>0.04839382544365312</v>
+      </c>
+      <c r="F34">
+        <v>-0.003466733021804982</v>
+      </c>
+      <c r="G34">
+        <v>0.07052698569470559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-4.395793838154462e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-7.657994618296256e-06</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>6.237379586148135e-06</v>
+      </c>
+      <c r="E35">
+        <v>-0.0002224449349309771</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001134498314417002</v>
+      </c>
+      <c r="G35">
+        <v>2.37005012689312e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01894997545391721</v>
+        <v>0.0169121689845683</v>
       </c>
       <c r="C36">
-        <v>0.01725345912569147</v>
+        <v>0.0130964951732628</v>
       </c>
       <c r="D36">
-        <v>-0.00049174628847158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03514813674664216</v>
+      </c>
+      <c r="E36">
+        <v>0.08419468165092212</v>
+      </c>
+      <c r="F36">
+        <v>0.0008082547601219924</v>
+      </c>
+      <c r="G36">
+        <v>0.04174155243877216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03092745903783705</v>
+        <v>0.02411029078756322</v>
       </c>
       <c r="C38">
-        <v>0.03178946188342861</v>
+        <v>0.02442160095989316</v>
       </c>
       <c r="D38">
-        <v>-0.01486107815030585</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02871549705405626</v>
+      </c>
+      <c r="E38">
+        <v>0.07368738379849658</v>
+      </c>
+      <c r="F38">
+        <v>0.00170819899442071</v>
+      </c>
+      <c r="G38">
+        <v>0.0003169524341533367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04929131747915589</v>
+        <v>0.04321682930307071</v>
       </c>
       <c r="C39">
-        <v>0.05768430908994836</v>
+        <v>0.06050003367155102</v>
       </c>
       <c r="D39">
-        <v>0.02214971856889434</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06420605494271453</v>
+      </c>
+      <c r="E39">
+        <v>0.08134454217618972</v>
+      </c>
+      <c r="F39">
+        <v>-0.02162963902727403</v>
+      </c>
+      <c r="G39">
+        <v>0.05092901794371874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01240347380230559</v>
+        <v>0.01531599465542554</v>
       </c>
       <c r="C40">
-        <v>0.05367463574414751</v>
+        <v>0.03865609240378442</v>
       </c>
       <c r="D40">
-        <v>-0.00152097087576572</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03991329358074549</v>
+      </c>
+      <c r="E40">
+        <v>0.1197111809357775</v>
+      </c>
+      <c r="F40">
+        <v>0.02764632686875673</v>
+      </c>
+      <c r="G40">
+        <v>0.04848543180317848</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02435708307580526</v>
+        <v>0.02088775037823938</v>
       </c>
       <c r="C41">
-        <v>0.01402249905959862</v>
+        <v>0.009944204698423076</v>
       </c>
       <c r="D41">
-        <v>-0.00327102540409889</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02265824260288146</v>
+      </c>
+      <c r="E41">
+        <v>0.07939532402074369</v>
+      </c>
+      <c r="F41">
+        <v>-0.0007412323792583154</v>
+      </c>
+      <c r="G41">
+        <v>0.0295958522557025</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04664659520839299</v>
+        <v>0.03264321421073765</v>
       </c>
       <c r="C43">
-        <v>0.03365269400442818</v>
+        <v>0.02414351906676068</v>
       </c>
       <c r="D43">
-        <v>0.008355784283129339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05064141117097008</v>
+      </c>
+      <c r="E43">
+        <v>0.09398635762544984</v>
+      </c>
+      <c r="F43">
+        <v>0.020176795584488</v>
+      </c>
+      <c r="G43">
+        <v>0.04876995045527202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01895047053043464</v>
+        <v>0.01986662591096897</v>
       </c>
       <c r="C44">
-        <v>0.06739688477717452</v>
+        <v>0.04668080826582069</v>
       </c>
       <c r="D44">
-        <v>-0.01049449460792999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04025117270031043</v>
+      </c>
+      <c r="E44">
+        <v>0.1136679683873239</v>
+      </c>
+      <c r="F44">
+        <v>-0.0124001752885858</v>
+      </c>
+      <c r="G44">
+        <v>0.03032980898740334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01390258227194232</v>
+        <v>0.01282986875425217</v>
       </c>
       <c r="C46">
-        <v>0.02689104615152466</v>
+        <v>0.02880843253265872</v>
       </c>
       <c r="D46">
-        <v>-0.01635323223715317</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02673635264881947</v>
+      </c>
+      <c r="E46">
+        <v>0.0976416345925018</v>
+      </c>
+      <c r="F46">
+        <v>-0.01589116630147037</v>
+      </c>
+      <c r="G46">
+        <v>0.06955922755964987</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.09199699304809263</v>
+        <v>0.09317006852235683</v>
       </c>
       <c r="C47">
-        <v>0.06545718969497981</v>
+        <v>0.07884407143426769</v>
       </c>
       <c r="D47">
-        <v>-0.05235622694160774</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01827232131154133</v>
+      </c>
+      <c r="E47">
+        <v>0.0788095632682682</v>
+      </c>
+      <c r="F47">
+        <v>0.02103613238126894</v>
+      </c>
+      <c r="G47">
+        <v>0.06480231646065376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02070759976965219</v>
+        <v>0.01908474717882417</v>
       </c>
       <c r="C48">
-        <v>0.01159735287630559</v>
+        <v>0.01426606015144854</v>
       </c>
       <c r="D48">
-        <v>-0.02069309247142912</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0207762879316676</v>
+      </c>
+      <c r="E48">
+        <v>0.09887547261568902</v>
+      </c>
+      <c r="F48">
+        <v>-0.007169579388197246</v>
+      </c>
+      <c r="G48">
+        <v>0.04948003115648466</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08567413170443763</v>
+        <v>0.07332232403032937</v>
       </c>
       <c r="C50">
-        <v>0.08262528966380606</v>
+        <v>0.07425439059844491</v>
       </c>
       <c r="D50">
-        <v>-0.05237990024759907</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0009087450059238235</v>
+      </c>
+      <c r="E50">
+        <v>0.09027047089791508</v>
+      </c>
+      <c r="F50">
+        <v>0.05655129343095538</v>
+      </c>
+      <c r="G50">
+        <v>0.03320607354556716</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01490286069858856</v>
+        <v>0.0111785579727203</v>
       </c>
       <c r="C51">
-        <v>0.04853069575920184</v>
+        <v>0.03035332355401991</v>
       </c>
       <c r="D51">
-        <v>0.0448418667968077</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.06916761983773694</v>
+      </c>
+      <c r="E51">
+        <v>0.08695548725371864</v>
+      </c>
+      <c r="F51">
+        <v>-0.01391524205769841</v>
+      </c>
+      <c r="G51">
+        <v>0.02601166320572363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08504969789221713</v>
+        <v>0.09879131165018025</v>
       </c>
       <c r="C53">
-        <v>0.07904369051221598</v>
+        <v>0.08538142773061362</v>
       </c>
       <c r="D53">
-        <v>-0.06924491392807024</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05570163725086821</v>
+      </c>
+      <c r="E53">
+        <v>0.08778458881145199</v>
+      </c>
+      <c r="F53">
+        <v>0.01766472185846725</v>
+      </c>
+      <c r="G53">
+        <v>0.06304945093098813</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03844285351894217</v>
+        <v>0.03131891475282096</v>
       </c>
       <c r="C54">
-        <v>0.03197755520983321</v>
+        <v>0.0303683205877651</v>
       </c>
       <c r="D54">
-        <v>0.002090833658478507</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03980005564493729</v>
+      </c>
+      <c r="E54">
+        <v>0.09103427489959336</v>
+      </c>
+      <c r="F54">
+        <v>-0.007021976471661702</v>
+      </c>
+      <c r="G54">
+        <v>0.05870002204711247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08273761730381617</v>
+        <v>0.09139353400893706</v>
       </c>
       <c r="C55">
-        <v>0.05175516409841684</v>
+        <v>0.06611801850564329</v>
       </c>
       <c r="D55">
-        <v>-0.06788618866730926</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0541501201999289</v>
+      </c>
+      <c r="E55">
+        <v>0.05725449325500308</v>
+      </c>
+      <c r="F55">
+        <v>0.02773258655379183</v>
+      </c>
+      <c r="G55">
+        <v>0.0283484059017808</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1531377199495878</v>
+        <v>0.1560000829196349</v>
       </c>
       <c r="C56">
-        <v>0.08100425205624799</v>
+        <v>0.09945690792927805</v>
       </c>
       <c r="D56">
-        <v>-0.06606035687514722</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05757072478606903</v>
+      </c>
+      <c r="E56">
+        <v>0.03559836001313958</v>
+      </c>
+      <c r="F56">
+        <v>0.0132304056587899</v>
+      </c>
+      <c r="G56">
+        <v>0.04067780747655497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05056634603172808</v>
+        <v>0.03740278825588684</v>
       </c>
       <c r="C58">
-        <v>-0.002013999171919703</v>
+        <v>0.01068958059836693</v>
       </c>
       <c r="D58">
-        <v>0.1539211828934476</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2597722677934861</v>
+      </c>
+      <c r="E58">
+        <v>0.3545591991954725</v>
+      </c>
+      <c r="F58">
+        <v>0.1747905821240287</v>
+      </c>
+      <c r="G58">
+        <v>-0.6194382563012335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1226242116965573</v>
+        <v>0.1414494536677028</v>
       </c>
       <c r="C59">
-        <v>-0.2097758593599215</v>
+        <v>-0.1954770180235582</v>
       </c>
       <c r="D59">
-        <v>0.02551654129999374</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03205571137202177</v>
+      </c>
+      <c r="E59">
+        <v>0.0356771204367729</v>
+      </c>
+      <c r="F59">
+        <v>-0.02431255474762111</v>
+      </c>
+      <c r="G59">
+        <v>-0.01601333852662091</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2938038323977706</v>
+        <v>0.2667622837498669</v>
       </c>
       <c r="C60">
-        <v>0.1045908492015991</v>
+        <v>0.09712050747653167</v>
       </c>
       <c r="D60">
-        <v>0.2715343163621763</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2486020372480437</v>
+      </c>
+      <c r="E60">
+        <v>-0.2396143052935498</v>
+      </c>
+      <c r="F60">
+        <v>0.095197117014083</v>
+      </c>
+      <c r="G60">
+        <v>0.01502296885791088</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04758990251916334</v>
+        <v>0.04472093738161995</v>
       </c>
       <c r="C61">
-        <v>0.05431145197336586</v>
+        <v>0.05465633227447061</v>
       </c>
       <c r="D61">
-        <v>0.01874973067020043</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05147011142265915</v>
+      </c>
+      <c r="E61">
+        <v>0.0771807368928473</v>
+      </c>
+      <c r="F61">
+        <v>-0.000382975533882026</v>
+      </c>
+      <c r="G61">
+        <v>0.06287016269001273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01897767534753718</v>
+        <v>0.01860979833385267</v>
       </c>
       <c r="C63">
-        <v>0.03395222680569776</v>
+        <v>0.03009137125376737</v>
       </c>
       <c r="D63">
-        <v>-0.02099213283526078</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02656434331193862</v>
+      </c>
+      <c r="E63">
+        <v>0.09122175322933386</v>
+      </c>
+      <c r="F63">
+        <v>0.01818848253502221</v>
+      </c>
+      <c r="G63">
+        <v>0.02744017445801247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05436353908646126</v>
+        <v>0.05864196063630309</v>
       </c>
       <c r="C64">
-        <v>0.04895043169320585</v>
+        <v>0.059162539218077</v>
       </c>
       <c r="D64">
-        <v>0.001555345671425859</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01776947214741588</v>
+      </c>
+      <c r="E64">
+        <v>0.06131020678167289</v>
+      </c>
+      <c r="F64">
+        <v>-0.01613183182179875</v>
+      </c>
+      <c r="G64">
+        <v>0.07883291414095532</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07834219976834521</v>
+        <v>0.06471279317637574</v>
       </c>
       <c r="C65">
-        <v>0.02671177397783865</v>
+        <v>0.02618588046792008</v>
       </c>
       <c r="D65">
-        <v>0.04739502504110999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.09285015303753176</v>
+      </c>
+      <c r="E65">
+        <v>0.06410009743952548</v>
+      </c>
+      <c r="F65">
+        <v>0.02902463133363479</v>
+      </c>
+      <c r="G65">
+        <v>-0.06282929824917435</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06235676037918316</v>
+        <v>0.05494807218122341</v>
       </c>
       <c r="C66">
-        <v>0.07630528621713088</v>
+        <v>0.0755374943347609</v>
       </c>
       <c r="D66">
-        <v>0.04009650905019502</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0870434607559981</v>
+      </c>
+      <c r="E66">
+        <v>0.09319533678376597</v>
+      </c>
+      <c r="F66">
+        <v>-0.003127592302662481</v>
+      </c>
+      <c r="G66">
+        <v>0.04935347082361007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05099575928701377</v>
+        <v>0.04337154039975734</v>
       </c>
       <c r="C67">
-        <v>0.03186827988786343</v>
+        <v>0.02883601920011492</v>
       </c>
       <c r="D67">
-        <v>-0.02458293820411215</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.007979952160373109</v>
+      </c>
+      <c r="E67">
+        <v>0.04525890893855011</v>
+      </c>
+      <c r="F67">
+        <v>0.003247688175610291</v>
+      </c>
+      <c r="G67">
+        <v>0.007267643637481354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1235275295305405</v>
+        <v>0.1475196788558403</v>
       </c>
       <c r="C68">
-        <v>-0.2823924999081596</v>
+        <v>-0.24392652681853</v>
       </c>
       <c r="D68">
-        <v>-0.01570032437152454</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01062998035707677</v>
+      </c>
+      <c r="E68">
+        <v>0.05250522937450517</v>
+      </c>
+      <c r="F68">
+        <v>0.0135631239185578</v>
+      </c>
+      <c r="G68">
+        <v>-0.01273458872239691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0941743294707406</v>
+        <v>0.08983648467625339</v>
       </c>
       <c r="C69">
-        <v>0.07124919398254471</v>
+        <v>0.08882825532204522</v>
       </c>
       <c r="D69">
-        <v>-0.04691907122728053</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.003317359798661897</v>
+      </c>
+      <c r="E69">
+        <v>0.07691901178379339</v>
+      </c>
+      <c r="F69">
+        <v>-0.008594415630619015</v>
+      </c>
+      <c r="G69">
+        <v>0.07922601076370106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1133679537558973</v>
+        <v>0.142645424336202</v>
       </c>
       <c r="C71">
-        <v>-0.2608004713071931</v>
+        <v>-0.2456292454243401</v>
       </c>
       <c r="D71">
-        <v>0.003444881586993816</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.006979180748931631</v>
+      </c>
+      <c r="E71">
+        <v>0.071276302453517</v>
+      </c>
+      <c r="F71">
+        <v>0.03091350377742839</v>
+      </c>
+      <c r="G71">
+        <v>0.0368802457604245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1007977832958356</v>
+        <v>0.1060527228925761</v>
       </c>
       <c r="C72">
-        <v>0.04409864519073989</v>
+        <v>0.04818320108426961</v>
       </c>
       <c r="D72">
-        <v>0.01435050319250864</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0519503716625563</v>
+      </c>
+      <c r="E72">
+        <v>0.05199855857986872</v>
+      </c>
+      <c r="F72">
+        <v>0.02992182897779061</v>
+      </c>
+      <c r="G72">
+        <v>0.05673220444313368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3766672303007803</v>
+        <v>0.3223299545022982</v>
       </c>
       <c r="C73">
-        <v>0.0494322561464528</v>
+        <v>0.06851986430201192</v>
       </c>
       <c r="D73">
-        <v>0.5970869525056183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.504742801983089</v>
+      </c>
+      <c r="E73">
+        <v>-0.5009884830992114</v>
+      </c>
+      <c r="F73">
+        <v>0.18039591136221</v>
+      </c>
+      <c r="G73">
+        <v>-0.01692070196981624</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1077762022203845</v>
+        <v>0.110850782953103</v>
       </c>
       <c r="C74">
-        <v>0.09298830938325056</v>
+        <v>0.09173888538993573</v>
       </c>
       <c r="D74">
-        <v>-0.05615308242910053</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04616159845948357</v>
+      </c>
+      <c r="E74">
+        <v>0.06441859851967431</v>
+      </c>
+      <c r="F74">
+        <v>0.03761073884502689</v>
+      </c>
+      <c r="G74">
+        <v>0.02482063459196686</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2569308799757351</v>
+        <v>0.2589496778738198</v>
       </c>
       <c r="C75">
-        <v>0.08714870050292758</v>
+        <v>0.1215756261013873</v>
       </c>
       <c r="D75">
-        <v>-0.1575735594061074</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1614981138531245</v>
+      </c>
+      <c r="E75">
+        <v>-0.002845131684206142</v>
+      </c>
+      <c r="F75">
+        <v>0.00972039543180853</v>
+      </c>
+      <c r="G75">
+        <v>-0.02475125056608618</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1186124102172861</v>
+        <v>0.1300920800503185</v>
       </c>
       <c r="C76">
-        <v>0.07892139909131506</v>
+        <v>0.08917209562057811</v>
       </c>
       <c r="D76">
-        <v>-0.09195952798624001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07877406550575285</v>
+      </c>
+      <c r="E76">
+        <v>0.0857736775344861</v>
+      </c>
+      <c r="F76">
+        <v>0.007373893990841924</v>
+      </c>
+      <c r="G76">
+        <v>0.02848983532784704</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0827855228859587</v>
+        <v>0.06916355091121165</v>
       </c>
       <c r="C77">
-        <v>0.036910836308879</v>
+        <v>0.05647609491221434</v>
       </c>
       <c r="D77">
-        <v>0.04841427804462051</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07287015988062261</v>
+      </c>
+      <c r="E77">
+        <v>0.1214782438716507</v>
+      </c>
+      <c r="F77">
+        <v>-0.2050031273834976</v>
+      </c>
+      <c r="G77">
+        <v>-0.1113428091891647</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04920471451796406</v>
+        <v>0.04937800818089078</v>
       </c>
       <c r="C78">
-        <v>0.03902487772265409</v>
+        <v>0.05010283774230267</v>
       </c>
       <c r="D78">
-        <v>0.04203971003924573</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07959226263931454</v>
+      </c>
+      <c r="E78">
+        <v>0.08438089677180328</v>
+      </c>
+      <c r="F78">
+        <v>-0.00514305959853646</v>
+      </c>
+      <c r="G78">
+        <v>0.04736786325059512</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.001420403723430336</v>
+        <v>0.03558532832400715</v>
       </c>
       <c r="C79">
-        <v>0.0013918809004194</v>
+        <v>0.04933412379277814</v>
       </c>
       <c r="D79">
-        <v>0.005181247765055803</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.09055839605265241</v>
+      </c>
+      <c r="E79">
+        <v>0.07155449194523826</v>
+      </c>
+      <c r="F79">
+        <v>0.03727800012658591</v>
+      </c>
+      <c r="G79">
+        <v>0.1080177911433907</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03862462246860147</v>
+        <v>0.03049343851334136</v>
       </c>
       <c r="C80">
-        <v>0.04712681833079749</v>
+        <v>0.04914898190347444</v>
       </c>
       <c r="D80">
-        <v>0.0352461058551232</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04367941749906654</v>
+      </c>
+      <c r="E80">
+        <v>0.02475390183689905</v>
+      </c>
+      <c r="F80">
+        <v>-0.04306032884861008</v>
+      </c>
+      <c r="G80">
+        <v>0.003571542900544082</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1464195929737926</v>
+        <v>0.1430655206665041</v>
       </c>
       <c r="C81">
-        <v>0.06806958173005766</v>
+        <v>0.08815643589376677</v>
       </c>
       <c r="D81">
-        <v>-0.1361526552335751</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1281037517653555</v>
+      </c>
+      <c r="E81">
+        <v>0.04959798012536494</v>
+      </c>
+      <c r="F81">
+        <v>0.009565102072100351</v>
+      </c>
+      <c r="G81">
+        <v>0.003180114057933481</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.2107979748951278</v>
+        <v>0.2344499432255715</v>
       </c>
       <c r="C82">
-        <v>0.09209917842079267</v>
+        <v>0.1584658986477711</v>
       </c>
       <c r="D82">
-        <v>-0.1817948021341025</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2453124274786296</v>
+      </c>
+      <c r="E82">
+        <v>-0.04656508241241292</v>
+      </c>
+      <c r="F82">
+        <v>-0.0405026031976365</v>
+      </c>
+      <c r="G82">
+        <v>0.3866691410685248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04335815358112733</v>
+        <v>0.02995067319591909</v>
       </c>
       <c r="C83">
-        <v>0.03566658397467272</v>
+        <v>0.04708687398496095</v>
       </c>
       <c r="D83">
-        <v>0.04544716239460979</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03655535238838646</v>
+      </c>
+      <c r="E83">
+        <v>0.0314783265598226</v>
+      </c>
+      <c r="F83">
+        <v>-0.0246555881407352</v>
+      </c>
+      <c r="G83">
+        <v>-0.006532949621228866</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.000225328932667128</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.001226031263309893</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0009247351443505016</v>
+      </c>
+      <c r="E84">
+        <v>0.006914572128883048</v>
+      </c>
+      <c r="F84">
+        <v>0.001860626547731622</v>
+      </c>
+      <c r="G84">
+        <v>-0.00530345534436307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2177300054639533</v>
+        <v>0.2015087111552966</v>
       </c>
       <c r="C85">
-        <v>0.09911198233961302</v>
+        <v>0.1138048585700401</v>
       </c>
       <c r="D85">
-        <v>-0.167755371118137</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1408160954700937</v>
+      </c>
+      <c r="E85">
+        <v>-0.03076059989821846</v>
+      </c>
+      <c r="F85">
+        <v>0.07864095079912138</v>
+      </c>
+      <c r="G85">
+        <v>-0.01683354868544314</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01114449629536429</v>
+        <v>0.0154032063509256</v>
       </c>
       <c r="C86">
-        <v>0.02968413787293517</v>
+        <v>0.0158257498768925</v>
       </c>
       <c r="D86">
-        <v>0.03745466625996058</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07728687988528234</v>
+      </c>
+      <c r="E86">
+        <v>0.1038342540676514</v>
+      </c>
+      <c r="F86">
+        <v>-0.0198282628663507</v>
+      </c>
+      <c r="G86">
+        <v>0.06782966849184394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.03229804932096772</v>
+        <v>0.03275790642854046</v>
       </c>
       <c r="C87">
-        <v>-0.0001806764444750958</v>
+        <v>0.01144810780499676</v>
       </c>
       <c r="D87">
-        <v>0.04876694010119698</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09247797919000963</v>
+      </c>
+      <c r="E87">
+        <v>0.1443278367387267</v>
+      </c>
+      <c r="F87">
+        <v>-0.05055544843550241</v>
+      </c>
+      <c r="G87">
+        <v>-0.02744367104993971</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.111872799065755</v>
+        <v>0.09415283689278167</v>
       </c>
       <c r="C88">
-        <v>0.0834072178525965</v>
+        <v>0.06861622352200876</v>
       </c>
       <c r="D88">
-        <v>-0.02018674101506102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01500087384665763</v>
+      </c>
+      <c r="E88">
+        <v>0.05640011860687734</v>
+      </c>
+      <c r="F88">
+        <v>-0.01755928063795474</v>
+      </c>
+      <c r="G88">
+        <v>0.04221000799516748</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1751294670698061</v>
+        <v>0.2134059371318127</v>
       </c>
       <c r="C89">
-        <v>-0.3826664070929302</v>
+        <v>-0.3842758230223411</v>
       </c>
       <c r="D89">
-        <v>-0.038939943449605</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01449189816245761</v>
+      </c>
+      <c r="E89">
+        <v>0.08120219115517041</v>
+      </c>
+      <c r="F89">
+        <v>-0.07140028316333763</v>
+      </c>
+      <c r="G89">
+        <v>0.02107077761599813</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1683047337683872</v>
+        <v>0.1941094301791896</v>
       </c>
       <c r="C90">
-        <v>-0.3348295717578487</v>
+        <v>-0.3117279175464359</v>
       </c>
       <c r="D90">
-        <v>-0.04728607394273185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01576343453871406</v>
+      </c>
+      <c r="E90">
+        <v>0.06319633675255608</v>
+      </c>
+      <c r="F90">
+        <v>-0.005193428476058063</v>
+      </c>
+      <c r="G90">
+        <v>-0.00307875734314475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1919288200498405</v>
+        <v>0.1873871912740512</v>
       </c>
       <c r="C91">
-        <v>0.118851247001972</v>
+        <v>0.1392679905831349</v>
       </c>
       <c r="D91">
-        <v>-0.1443758454728232</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1324542667104756</v>
+      </c>
+      <c r="E91">
+        <v>0.04392414870420396</v>
+      </c>
+      <c r="F91">
+        <v>0.003665935036905984</v>
+      </c>
+      <c r="G91">
+        <v>0.00396669063208774</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1612337694408328</v>
+        <v>0.1800526829511225</v>
       </c>
       <c r="C92">
-        <v>-0.2929767938179108</v>
+        <v>-0.2965251788198616</v>
       </c>
       <c r="D92">
-        <v>-0.03183913979346463</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01253576733926702</v>
+      </c>
+      <c r="E92">
+        <v>0.07197000247558553</v>
+      </c>
+      <c r="F92">
+        <v>-0.03334833984738257</v>
+      </c>
+      <c r="G92">
+        <v>0.04729448802347067</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.187548329369757</v>
+        <v>0.2124907570210942</v>
       </c>
       <c r="C93">
-        <v>-0.3390864846058709</v>
+        <v>-0.3203803380903624</v>
       </c>
       <c r="D93">
-        <v>-0.06120440842679863</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02545923833438002</v>
+      </c>
+      <c r="E93">
+        <v>0.03610186507235193</v>
+      </c>
+      <c r="F93">
+        <v>0.02215612051482544</v>
+      </c>
+      <c r="G93">
+        <v>0.04318431314693656</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3591792613613681</v>
+        <v>0.3500064117522913</v>
       </c>
       <c r="C94">
-        <v>0.1300869128914083</v>
+        <v>0.177603687839698</v>
       </c>
       <c r="D94">
-        <v>-0.4524379427212572</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4281265638648105</v>
+      </c>
+      <c r="E94">
+        <v>-0.1055927767257477</v>
+      </c>
+      <c r="F94">
+        <v>-0.09319269102222033</v>
+      </c>
+      <c r="G94">
+        <v>-0.5348323378054276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1178668527379755</v>
+        <v>0.08879005356607832</v>
       </c>
       <c r="C95">
-        <v>0.03627186457286093</v>
+        <v>0.05014128390738727</v>
       </c>
       <c r="D95">
-        <v>0.2816237335019997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2213256024464828</v>
+      </c>
+      <c r="E95">
+        <v>-0.0766207963800145</v>
+      </c>
+      <c r="F95">
+        <v>-0.9011587764234676</v>
+      </c>
+      <c r="G95">
+        <v>-0.05892438083161786</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1881049640944778</v>
+        <v>0.1848683923417593</v>
       </c>
       <c r="C98">
-        <v>0.02973244789484993</v>
+        <v>0.04910256138881132</v>
       </c>
       <c r="D98">
-        <v>0.2162420007728575</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2090336368688912</v>
+      </c>
+      <c r="E98">
+        <v>-0.1409574582273244</v>
+      </c>
+      <c r="F98">
+        <v>0.1131689681208226</v>
+      </c>
+      <c r="G98">
+        <v>0.04142402319950621</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009972939114815931</v>
+        <v>0.007549132720538512</v>
       </c>
       <c r="C101">
-        <v>0.03026096981235168</v>
+        <v>0.02703716528799277</v>
       </c>
       <c r="D101">
-        <v>-0.01049147736899872</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03095084915805126</v>
+      </c>
+      <c r="E101">
+        <v>0.0873676270916097</v>
+      </c>
+      <c r="F101">
+        <v>-0.006176775374973359</v>
+      </c>
+      <c r="G101">
+        <v>0.05554572194898832</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1230124807838859</v>
+        <v>0.1254082717069366</v>
       </c>
       <c r="C102">
-        <v>0.0635737145056495</v>
+        <v>0.09797582070625871</v>
       </c>
       <c r="D102">
-        <v>-0.05221523084657054</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05865202051123566</v>
+      </c>
+      <c r="E102">
+        <v>-0.009224981876432245</v>
+      </c>
+      <c r="F102">
+        <v>-0.02760096335598335</v>
+      </c>
+      <c r="G102">
+        <v>0.04328359926700171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
